--- a/medicine/Enfance/Aladin_ou_la_Lampe_merveilleuse/Aladin_ou_la_Lampe_merveilleuse.xlsx
+++ b/medicine/Enfance/Aladin_ou_la_Lampe_merveilleuse/Aladin_ou_la_Lampe_merveilleuse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Aladin ou la Lampe merveilleuse, également intitulé Histoire d’Aladdin, ou la Lampe merveilleuse d'après son titre complet ou Aladin et la Lampe merveilleuse d'après une traduction erronée, voire simplement Aladin, est un conte traditionnel arabo-perse. Conte orphelin, il ne figure pas dans les manuscrits les plus anciens du recueil Les Mille et Une Nuits mais y a été associé à partir du XVIIIe siècle avec la traduction française du recueil par Antoine Galland qui l'augmente de plusieurs contes. Le nom d'Aladin — orthographié à l'origine Aladdin, comme c'est encore le cas dans les pays anglo-saxons — signifie littéralement « élévation de la religion », de l’arabe : علاء الدين, ʻAlāʼ ad-Dīn /ʕalaːʔ adˈdiːn/: de علاء /ʕalaːʔ/ (« élevé », « sublime ») et de الدين /adˈdiːn/ (« religion », « croyance »)[1]. En persan, il se prononce encore aujourd'hui Ala e din.
+Aladin ou la Lampe merveilleuse, également intitulé Histoire d’Aladdin, ou la Lampe merveilleuse d'après son titre complet ou Aladin et la Lampe merveilleuse d'après une traduction erronée, voire simplement Aladin, est un conte traditionnel arabo-perse. Conte orphelin, il ne figure pas dans les manuscrits les plus anciens du recueil Les Mille et Une Nuits mais y a été associé à partir du XVIIIe siècle avec la traduction française du recueil par Antoine Galland qui l'augmente de plusieurs contes. Le nom d'Aladin — orthographié à l'origine Aladdin, comme c'est encore le cas dans les pays anglo-saxons — signifie littéralement « élévation de la religion », de l’arabe : علاء الدين, ʻAlāʼ ad-Dīn /ʕalaːʔ adˈdiːn/: de علاء /ʕalaːʔ/ (« élevé », « sublime ») et de الدين /adˈdiːn/ (« religion », « croyance »). En persan, il se prononce encore aujourd'hui Ala e din.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Transmission et traductions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Souvent associé au recueil des Mille et Une Nuits, Aladin ou la Lampe merveilleuse ne fait pas partie des manuscrits originaux, contrairement à une idée largement répandue[2], mais a été ajouté de façon tardive à l'ouvrage tout comme Sinbad le marin et Ali Baba et les Quarante voleurs. Cette nouvelle mouture élargie des Mille et Une Nuits sera largement diffusée au XVIIIe siècle notamment avec la version d'Antoine Galland. Celui-ci s'était fait rapporter en 1701 de Syrie un recueil de contes, pour la plupart d’origine persane et traduits en arabe à la fin du VIIe siècle. Il en réalise la première traduction française à laquelle il adjoindra d’autres récits comme ceux de Sinbad et d’Ali Baba.
-Malgré d'intenses recherches menées depuis le XVIIIe siècle, on n'a jamais pu trouver de sources arabes et orientales à ces histoires « orphelines ». On sait, par le journal tenu par Antoine Galland, que Hanna Dyâb lui raconta seize contes sur lesquels il en publia douze. Parmi ceux-ci, on trouve celui d'Aladin[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Souvent associé au recueil des Mille et Une Nuits, Aladin ou la Lampe merveilleuse ne fait pas partie des manuscrits originaux, contrairement à une idée largement répandue, mais a été ajouté de façon tardive à l'ouvrage tout comme Sinbad le marin et Ali Baba et les Quarante voleurs. Cette nouvelle mouture élargie des Mille et Une Nuits sera largement diffusée au XVIIIe siècle notamment avec la version d'Antoine Galland. Celui-ci s'était fait rapporter en 1701 de Syrie un recueil de contes, pour la plupart d’origine persane et traduits en arabe à la fin du VIIe siècle. Il en réalise la première traduction française à laquelle il adjoindra d’autres récits comme ceux de Sinbad et d’Ali Baba.
+Malgré d'intenses recherches menées depuis le XVIIIe siècle, on n'a jamais pu trouver de sources arabes et orientales à ces histoires « orphelines ». On sait, par le journal tenu par Antoine Galland, que Hanna Dyâb lui raconta seize contes sur lesquels il en publia douze. Parmi ceux-ci, on trouve celui d'Aladin.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans la version traduite en français que l'on trouve dans Les Mille et Une Nuits, Aladin vit en Chine et est le fils d'un pauvre tailleur appelé Moustafa. C'est un jeune garçon turbulent que ses parents ne parviennent pas à éduquer et qui a de mauvaises fréquentations. Devenu orphelin de père, Aladin végète dans l'oisiveté en laissant tout le travail à sa mère qui peine à les nourrir tous les deux grâce au produit de son commerce. Un jour, un sorcier appelé simplement le magicien africain accoste Aladin en se faisant passer pour un oncle longtemps resté à l'étranger. Le magicien feint de vouloir éduquer Aladin pour en faire un marchand de tissus. En réalité, après quelques journées, il l'emmène jusqu'à une caverne profonde dans laquelle il ne peut pas s'aventurer lui-même. Après lui avoir donné un anneau magique pour le protéger, il ordonne donc au jeune homme d'aller récupérer une lampe en ignorant la plupart des trésors qui se trouvent là, sauf les pierres précieuses poussant sur les arbres du jardin souterrain. Aladin obéit, mais refuse de donner la lampe au magicien avant que celui-ci ne l'ait fait sortir du souterrain. Dépité, le magicien abandonne Aladin à une mort certaine, mais doit abandonner aussi la lampe.
 Aladin parvient à maîtriser les pouvoirs de la lampe : en la frottant, il peut faire apparaître un « génie » (djinn) capable d'accomplir toutes ses volontés, sans limite apparente et vivre avec sa mère dans la prospérité. Il devient aussi peu à peu plus éduqué et plus poli, grâce à l'influence de la magie de la lampe. Un jour, après s'être dissimulé par curiosité près de l'entrée des bains afin d'apercevoir le visage de la fille du sultan, la princesse Badroulboudour, il en tombe amoureux et décide de tout faire pour l'épouser. Il convainc sa mère de se rendre au palais pour demander la main de Badroulboudour au sultan de sa part, avec comme présent une jarre remplie de pierres précieuses. Le sultan, qui compte marier sa fille au fils de son grand vizir, est impressionné par un tel cadeau, mais demande un délai de trois mois et finit par oublier sa promesse. Le soir du mariage de Badroulboudour et du fils du vizir, Aladin fait enlever le lit des époux par le génie et les sépare pour dormir lui-même avec la princesse, avec une épée plantée entre eux en signe de chasteté. Le sultan finit par faire annuler le mariage, mais impose à Aladin une demande exorbitante : un cortège de serviteurs d'un luxe inouï et des présents impossibles à rassembler. Grâce au génie, Aladin offre aussitôt les cadeaux demandés et le sultan, impressionné, accepte le mariage. Aladin et Badroulboudour s'installent dans un somptueux palais construit par le génie en face du palais du sultan.
@@ -579,7 +595,9 @@
           <t>Analyse</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le conte est parsemé d'allégories : la lampe et les pouvoirs magiques du maître pourraient symboliser la connaissance, le voyage, les longues études, et la grotte ténébreuse, l'ignorance. Les deux variantes apparaissent alors comme deux issues possibles de l'apprentissage : selon qu'Aladin maîtrise ou non les connaissances qu'il a eu l'occasion d'apprendre, il pourra se jouer de son maître ou au contraire tout perdre. Le tapis volant serait le jardin sacré parcourant l'espace (voir Michel Foucault)[réf. nécessaire].
 </t>
@@ -610,10 +628,12 @@
           <t>Analogies</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le conte ressortit au conte-type AT 331 (L'Esprit dans la bouteille). La première attestation de ce motif remonte au Testament de Salomon, texte apocryphe du Ier siècle : Salomon enferme les esprits qui lui désobéissent dans des bouteilles ou des coffres qu'il plonge dans la mer[4]. Le conte de Grimm intitulé L'Esprit dans la bouteille (en allemand : Der Geist im Glas) reprend le même thème.
-Dans des variantes d'Europe orientale, qui se rencontrent dès le XIVe siècle, l'être emprisonné puis libéré est souvent la personnification du malheur[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le conte ressortit au conte-type AT 331 (L'Esprit dans la bouteille). La première attestation de ce motif remonte au Testament de Salomon, texte apocryphe du Ier siècle : Salomon enferme les esprits qui lui désobéissent dans des bouteilles ou des coffres qu'il plonge dans la mer. Le conte de Grimm intitulé L'Esprit dans la bouteille (en allemand : Der Geist im Glas) reprend le même thème.
+Dans des variantes d'Europe orientale, qui se rencontrent dès le XIVe siècle, l'être emprisonné puis libéré est souvent la personnification du malheur.
 </t>
         </is>
       </c>
@@ -642,7 +662,9 @@
           <t>Adaptations</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Ce conte — dans sa variante la plus gratifiante pour Aladin — a été adapté au cinéma, au théâtre, en vidéo, etc. à plusieurs reprises.
 Le conte d'Hans Christian Andersen Le Briquet  est une adaptation de cette histoire.[réf. nécessaire]
@@ -666,13 +688,13 @@
 1989 : Aladin et la lampe merveilleuse, cinq épisodes de la série Iniminimagimo diffusée sur la chaîne Radio-Canada ;
 1990 : La Bande à Picsou, le film : Le Trésor de la lampe perdue, film d'animation des studios Disney ;
 1992 : Aladdin, film d'animation des studios Disney ;
-1992 : Aladdin[5], moyen-métrage d'animation de Golden Films
+1992 : Aladdin, moyen-métrage d'animation de Golden Films
 1993 : Aladdin, jeu vidéo de plate-forme sur Super Nintendo, tiré du film ;
 1994 : Le Retour de Jafar, suite d'Aladdin des studios Disney et pilote de la série qui suit ;
 1994 : Aladdin, série animée tirée du film de Disney ;
 1996 : Aladdin et le Roi des voleurs des studios Disney, suite du Retour de Jafar ;
 2007 : Sonic and the Secret Rings : Erazor Djinn se révèle être le génie d'Aladin, libéré de la lampe et décidé à recréer le monde des Mille et Une Nuits à son image ;
-2010 : un épisode de la série d'animation Simsala Grimm[6] ;
+2010 : un épisode de la série d'animation Simsala Grimm ;
 2012 : La Fabuleuse Histoire d'Aladin : pièce de théâtre de Sébastien Cypers, avec dans le rôle du génie de la lampe Thierry Lopez ;
 2015 : Les Nouvelles Aventures d'Aladin : film français d'Arthur Benzaquen sorti le 14 octobre 2015 avec dans le rôle d'Aladin Kev Adams ;
 2015 : A Whole New World: A Twisted Tale de Liz Braswell (en) ;
